--- a/myopia-business/bootstrap/src/main/resources/excel/导入学生.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/导入学生.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simple4h/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C54CD4-6634-0A43-AFD1-10FED58BDEEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF7E8F2-E2FF-A64F-9DA0-B86E24C44458}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,25 +16,20 @@
     <sheet name="筛查学生表" sheetId="1" r:id="rId1"/>
     <sheet name="学校编码规则" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">学生表
 </t>
     </r>
@@ -47,7 +42,8 @@
       <t>表格填写说明（请按要求填写）：
 1、带*为必填项
 2、填写省市县区，真实填写完整名称，如广东省，错误示范：广东。
-3、填写学校编码，请根据学校编码规则进行填写。</t>
+3、填写学校编码，请根据学校编码规则进行填写。
+4、填写班级需要填写该学校在系统内的已有的班级名称，如该学校一年级有3个班：1班、2班、3班，那填写的时候只能写1班或2班或3班，如填写了一班、二班、三班或4班 ，都会导入失败。</t>
     </r>
   </si>
   <si>
@@ -96,24 +92,18 @@
     <t>详细</t>
   </si>
   <si>
+    <t>陈肖</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>汉族</t>
+  </si>
+  <si>
     <t>一年级</t>
   </si>
   <si>
-    <t>汉族</t>
-  </si>
-  <si>
-    <t>陈肖</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>回族</t>
-  </si>
-  <si>
-    <t>职高一</t>
-  </si>
-  <si>
     <t>广东省</t>
   </si>
   <si>
@@ -127,57 +117,6 @@
   </si>
   <si>
     <t>聚德花苑</t>
-  </si>
-  <si>
-    <t>二年级</t>
-  </si>
-  <si>
-    <t>蒙古族</t>
-  </si>
-  <si>
-    <t>三年级</t>
-  </si>
-  <si>
-    <t>藏族</t>
-  </si>
-  <si>
-    <t>四年级</t>
-  </si>
-  <si>
-    <t>壮族</t>
-  </si>
-  <si>
-    <t>五年级</t>
-  </si>
-  <si>
-    <t>六年级</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>初一</t>
-  </si>
-  <si>
-    <t>初二</t>
-  </si>
-  <si>
-    <t>初三</t>
-  </si>
-  <si>
-    <t>初四</t>
-  </si>
-  <si>
-    <t>高一</t>
-  </si>
-  <si>
-    <t>高二</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>高三</t>
   </si>
   <si>
     <t>职高二</t>
@@ -215,11 +154,15 @@
 </t>
   </si>
   <si>
+    <t>878848347</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>350205198711076036</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>一班</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>350201198701146613</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -228,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -286,15 +229,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF454545"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -311,13 +245,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,11 +347,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -426,31 +360,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -459,12 +393,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -474,34 +408,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,9 +449,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFF2CC"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FF000000"/>
+      <color rgb="FFFFF2CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -564,7 +501,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="671195" y="2429510"/>
+          <a:off x="667385" y="2428875"/>
           <a:ext cx="4451350" cy="3658870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -835,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="131" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -853,43 +790,43 @@
     <col min="15" max="15" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:18" ht="27" customHeight="1">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="24"/>
-    </row>
-    <row r="2" spans="1:17" ht="79" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-    </row>
-    <row r="3" spans="1:17" ht="45" customHeight="1">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:18" ht="79" customHeight="1">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:18" ht="45" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -902,7 +839,7 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -935,73 +872,63 @@
       <c r="O3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="R3" s="14"/>
+    </row>
+    <row r="4" spans="1:18" ht="18" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="C4" s="7">
+        <v>34253</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="E4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6">
-        <v>34253</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="16">
-        <v>202020202</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>50</v>
+      <c r="G4" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="H4" s="9">
         <v>1111111</v>
       </c>
-      <c r="I4" s="29" t="s">
-        <v>51</v>
+      <c r="I4" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="J4" s="9">
         <v>13123455432</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="N4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="O4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1">
+      <c r="R4" s="14"/>
+    </row>
+    <row r="5" spans="1:18" ht="18" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
       <c r="E5" s="17"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="10"/>
       <c r="H5" s="12"/>
       <c r="I5" s="17"/>
@@ -1011,20 +938,15 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1">
+      <c r="R5" s="14"/>
+    </row>
+    <row r="6" spans="1:18" ht="18" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="10"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="10"/>
       <c r="H6" s="12"/>
       <c r="I6" s="17"/>
@@ -1034,20 +956,15 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1">
+      <c r="R6" s="14"/>
+    </row>
+    <row r="7" spans="1:18" ht="18" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="10"/>
       <c r="H7" s="12"/>
       <c r="I7" s="17"/>
@@ -1057,20 +974,15 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1">
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" spans="1:18" ht="18" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="10"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="10"/>
       <c r="H8" s="12"/>
       <c r="I8" s="17"/>
@@ -1080,20 +992,15 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1">
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="1:18" ht="18" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="10"/>
       <c r="H9" s="12"/>
       <c r="I9" s="17"/>
@@ -1103,18 +1010,15 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" spans="1:17" ht="18" customHeight="1">
+      <c r="R9" s="14"/>
+    </row>
+    <row r="10" spans="1:18" ht="18" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="10"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="10"/>
       <c r="H10" s="12"/>
       <c r="I10" s="17"/>
@@ -1124,18 +1028,15 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" spans="1:17" ht="18" customHeight="1">
+      <c r="R10" s="14"/>
+    </row>
+    <row r="11" spans="1:18" ht="18" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="10"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="10"/>
       <c r="H11" s="12"/>
       <c r="I11" s="17"/>
@@ -1145,18 +1046,15 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q11" s="14"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="10"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="10"/>
       <c r="H12" s="12"/>
       <c r="I12" s="17"/>
@@ -1166,18 +1064,15 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
-      <c r="P12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="10"/>
       <c r="H13" s="12"/>
       <c r="I13" s="17"/>
@@ -1187,20 +1082,15 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="10"/>
       <c r="H14" s="12"/>
       <c r="I14" s="17"/>
@@ -1210,20 +1100,15 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" s="14"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="10"/>
       <c r="H15" s="12"/>
       <c r="I15" s="17"/>
@@ -1233,18 +1118,15 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
-      <c r="P15" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q15" s="14"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" s="14"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="10"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="10"/>
       <c r="H16" s="12"/>
       <c r="I16" s="17"/>
@@ -1254,10 +1136,6 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="P16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16" s="14"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="10"/>
@@ -1265,7 +1143,7 @@
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="10"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="10"/>
       <c r="H17" s="12"/>
       <c r="I17" s="17"/>
@@ -1276,9 +1154,9 @@
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q17" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="Q17" s="15"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="10"/>
@@ -1286,7 +1164,7 @@
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="10"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="10"/>
       <c r="H18" s="12"/>
       <c r="I18" s="17"/>
@@ -1297,9 +1175,9 @@
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q18" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="10"/>
@@ -1307,7 +1185,7 @@
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="10"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="10"/>
       <c r="H19" s="12"/>
       <c r="I19" s="17"/>
@@ -1318,9 +1196,9 @@
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q19" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="Q19" s="15"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="10"/>
@@ -1328,7 +1206,7 @@
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="10"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="10"/>
       <c r="H20" s="12"/>
       <c r="I20" s="17"/>
@@ -1339,7 +1217,7 @@
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="13" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="Q20" s="13"/>
     </row>
@@ -1349,7 +1227,7 @@
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="10"/>
       <c r="H21" s="12"/>
       <c r="I21" s="17"/>
@@ -1360,7 +1238,7 @@
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="13" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="Q21" s="13"/>
     </row>
@@ -1370,7 +1248,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="10"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="10"/>
       <c r="H22" s="12"/>
       <c r="I22" s="17"/>
@@ -1387,7 +1265,7 @@
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="10"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="10"/>
       <c r="H23" s="12"/>
       <c r="I23" s="17"/>
@@ -1404,7 +1282,7 @@
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="10"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="10"/>
       <c r="H24" s="12"/>
       <c r="I24" s="17"/>
@@ -1421,7 +1299,7 @@
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="10"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="10"/>
       <c r="H25" s="12"/>
       <c r="I25" s="17"/>
@@ -1438,7 +1316,7 @@
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="10"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="10"/>
       <c r="H26" s="12"/>
       <c r="I26" s="17"/>
@@ -1455,7 +1333,7 @@
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="10"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="10"/>
       <c r="H27" s="12"/>
       <c r="I27" s="17"/>
@@ -1472,7 +1350,7 @@
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="10"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="10"/>
       <c r="H28" s="12"/>
       <c r="I28" s="17"/>
@@ -1489,7 +1367,7 @@
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="10"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="10"/>
       <c r="H29" s="12"/>
       <c r="I29" s="17"/>
@@ -1506,7 +1384,7 @@
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
       <c r="E30" s="18"/>
-      <c r="F30" s="10"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="10"/>
       <c r="H30" s="12"/>
       <c r="I30" s="17"/>
@@ -1523,7 +1401,7 @@
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="10"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="10"/>
       <c r="H31" s="12"/>
       <c r="I31" s="17"/>
@@ -1539,14 +1417,17 @@
     <mergeCell ref="A1:O2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6:B31" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$Q$13:$Q$14</formula1>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5:F31" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"一年级,二年级,三年级,四年级,五年级,初一,初二,初三,初四,高一,高二,高三"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F24" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$P$3:$P$21</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5:B31" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6:D31 E29:E31" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5:D31" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>"汉族,蒙古族,藏族,壮族,回族,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E31" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$Q$3:$Q$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -1560,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:S48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:B53"/>
+    <sheetView showGridLines="0" topLeftCell="A30" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -1571,950 +1452,950 @@
   <sheetData>
     <row r="1" spans="2:19" ht="34" customHeight="1">
       <c r="B1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="2:19">
-      <c r="B2" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
     </row>
     <row r="3" spans="2:19">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
     </row>
     <row r="33" spans="2:19">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
     </row>
     <row r="34" spans="2:19">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
     </row>
     <row r="35" spans="2:19">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
     </row>
     <row r="36" spans="2:19">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
     </row>
     <row r="37" spans="2:19">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
     </row>
     <row r="38" spans="2:19">
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
     </row>
     <row r="39" spans="2:19">
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
     </row>
     <row r="40" spans="2:19">
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
     </row>
     <row r="41" spans="2:19">
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
     </row>
     <row r="42" spans="2:19">
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
     </row>
     <row r="43" spans="2:19">
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
     </row>
     <row r="44" spans="2:19">
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
     </row>
     <row r="45" spans="2:19">
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
     </row>
     <row r="46" spans="2:19">
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
     </row>
     <row r="47" spans="2:19">
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
     </row>
     <row r="48" spans="2:19">
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2527,14 +2408,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B6D8A1CD1423A4B8D4D5DEFA52C453D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="49692f9fd0de76e21985a51b3fb35302">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7ea92aa9-b9d9-496e-9f4f-04b987921789" xmlns:ns3="9f45abd3-cfd2-4b8b-be93-7022777a81ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3479310f70bf85556a19b3d7ba23b63b" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x0101004B6D8A1CD1423A4B8D4D5DEFA52C453D" ma:contentTypeVersion="12" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="1df8f23a351facd4587f5c77ce43e7c0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7ea92aa9-b9d9-496e-9f4f-04b987921789" xmlns:ns3="9f45abd3-cfd2-4b8b-be93-7022777a81ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e49172a2ad1537ee220bfdbd25c3904f" ns2:_="" ns3:_="">
     <xsd:import namespace="7ea92aa9-b9d9-496e-9f4f-04b987921789"/>
     <xsd:import namespace="9f45abd3-cfd2-4b8b-be93-7022777a81ef"/>
     <xsd:element name="properties">
@@ -2623,7 +2498,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9f45abd3-cfd2-4b8b-be93-7022777a81ef" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="共享对象:" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -2642,7 +2517,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="共享对象详细信息" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -2659,8 +2534,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="内容类型"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="标题"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -2749,6 +2624,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2759,37 +2640,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2993C044-2307-4EF4-9FFD-3E28B1B79462}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DA9A5DF-24DB-41D9-95CB-042261942320}">
+  <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655FF657-01A1-484A-ABBB-71C5381666A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7ea92aa9-b9d9-496e-9f4f-04b987921789"/>
-    <ds:schemaRef ds:uri="9f45abd3-cfd2-4b8b-be93-7022777a81ef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2993C044-2307-4EF4-9FFD-3E28B1B79462}">
+  <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15CF804C-761B-44C7-968B-AB6709E3A246}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
+  <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/myopia-business/bootstrap/src/main/resources/excel/导入学生.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/导入学生.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simple4h/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF7E8F2-E2FF-A64F-9DA0-B86E24C44458}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868A8A1F-B4C3-B04A-AE47-87A63731EDEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,31 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">学生表
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表格填写说明（请按要求填写）：
-1、带*为必填项
-2、填写省市县区，真实填写完整名称，如广东省，错误示范：广东。
-3、填写学校编码，请根据学校编码规则进行填写。
-4、填写班级需要填写该学校在系统内的已有的班级名称，如该学校一年级有3个班：1班、2班、3班，那填写的时候只能写1班或2班或3班，如填写了一班、二班、三班或4班 ，都会导入失败。</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>姓名*</t>
   </si>
@@ -154,15 +130,31 @@
 </t>
   </si>
   <si>
-    <t>878848347</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>350205198711076036</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>一班</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">学生表
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表格填写说明（请按要求填写）：
+1、带*为必填项
+2、填写省市县区，真实填写完整名称，如广东省，错误示范：广东。
+3、填写学校编码，请根据学校编码规则进行填写。
+4、填写班级需要填写该学校在系统内的已有的班级名称，如该学校一年级有3个班：1班、2班、3班，那填写的时候只能写1班或2班或3班，如填写了一班、二班、三班或4班 ，都会导入失败。</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +166,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -184,6 +176,7 @@
       <b/>
       <sz val="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -191,29 +184,34 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -224,6 +222,26 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF454545"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -256,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -288,26 +306,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -331,14 +329,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -347,99 +347,102 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="131" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -790,137 +793,138 @@
     <col min="15" max="15" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:18" ht="121" customHeight="1">
+      <c r="A1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
+    </row>
+    <row r="2" spans="1:18" ht="45" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:18" ht="79" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
-    </row>
-    <row r="3" spans="1:18" ht="45" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I2" s="20" t="s">
         <v>8</v>
       </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="1:18" ht="18" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7">
+        <v>34253</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1231231231</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1111111</v>
+      </c>
       <c r="I3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="J3" s="9">
+        <v>13123455432</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R3" s="14"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7">
-        <v>34253</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1111111</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="9">
-        <v>13123455432</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="14"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1">
       <c r="A5" s="10"/>
@@ -1030,7 +1034,7 @@
       <c r="O10" s="10"/>
       <c r="R10" s="14"/>
     </row>
-    <row r="11" spans="1:18" ht="18" customHeight="1">
+    <row r="11" spans="1:18">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="10"/>
@@ -1118,7 +1122,6 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
-      <c r="R15" s="14"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="10"/>
@@ -1136,6 +1139,10 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
+      <c r="P16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="10"/>
@@ -1198,7 +1205,7 @@
       <c r="P19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="15"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="10"/>
@@ -1217,7 +1224,7 @@
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="13"/>
     </row>
@@ -1237,10 +1244,6 @@
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="10"/>
@@ -1349,7 +1352,7 @@
       <c r="B28" s="11"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="17"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="11"/>
       <c r="G28" s="10"/>
       <c r="H28" s="12"/>
@@ -1395,40 +1398,23 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
     </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5:F31" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F30" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"一年级,二年级,三年级,四年级,五年级,初一,初二,初三,初四,高一,高二,高三"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5:B31" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B30" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5:D31" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D30" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"汉族,蒙古族,藏族,壮族,回族,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E31" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>$Q$3:$Q$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28:E30" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>$Q$2:$Q$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -1452,12 +1438,12 @@
   <sheetData>
     <row r="1" spans="2:19" ht="34" customHeight="1">
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="2:19">
       <c r="B2" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -2408,6 +2394,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x0101004B6D8A1CD1423A4B8D4D5DEFA52C453D" ma:contentTypeVersion="12" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="1df8f23a351facd4587f5c77ce43e7c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7ea92aa9-b9d9-496e-9f4f-04b987921789" xmlns:ns3="9f45abd3-cfd2-4b8b-be93-7022777a81ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e49172a2ad1537ee220bfdbd25c3904f" ns2:_="" ns3:_="">
     <xsd:import namespace="7ea92aa9-b9d9-496e-9f4f-04b987921789"/>
@@ -2624,12 +2616,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2640,13 +2626,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DA9A5DF-24DB-41D9-95CB-042261942320}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2993C044-2307-4EF4-9FFD-3E28B1B79462}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2993C044-2307-4EF4-9FFD-3E28B1B79462}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DA9A5DF-24DB-41D9-95CB-042261942320}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
